--- a/Projet 2/Classeur_projet.xlsx
+++ b/Projet 2/Classeur_projet.xlsx
@@ -133,12 +133,6 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>Abandon</t>
-  </si>
-  <si>
-    <t>Grand prix</t>
-  </si>
-  <si>
     <t>pourcentage d'abandon</t>
   </si>
   <si>
@@ -286,10 +280,16 @@
     <t>Williams</t>
   </si>
   <si>
-    <t>écurie</t>
-  </si>
-  <si>
-    <t>Nom pilote</t>
+    <t>ecurie</t>
+  </si>
+  <si>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>grand prix</t>
+  </si>
+  <si>
+    <t>nom pilote</t>
   </si>
 </sst>
 </file>
@@ -626,9 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -653,40 +651,40 @@
         <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -709,10 +707,10 @@
         <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1">
         <v>7</v>
@@ -727,7 +725,7 @@
         <v>182</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -750,10 +748,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -768,7 +766,7 @@
         <v>67</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -791,10 +789,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -809,7 +807,7 @@
         <v>60</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -832,10 +830,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -850,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -873,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -891,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -914,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -932,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -955,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -973,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -996,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1014,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1037,10 +1035,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -1055,7 +1053,7 @@
         <v>122</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1078,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1096,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1119,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1137,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1160,10 +1158,10 @@
         <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1178,7 +1176,7 @@
         <v>98</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1201,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1219,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1242,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>38</v>
@@ -1260,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1283,10 +1281,10 @@
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1301,7 +1299,7 @@
         <v>103</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1324,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1342,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1365,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1383,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1406,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1424,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1447,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1465,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1488,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1506,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
